--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C3FF2-402A-47B7-B4D2-A60B8633FAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93639E21-C576-49D3-AF61-980AE076B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>kamal</t>
+  </si>
+  <si>
+    <t>jameel</t>
+  </si>
+  <si>
+    <t>mark</t>
   </si>
 </sst>
 </file>
@@ -360,52 +366,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/excel1.xlsx
+++ b/excel1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93639E21-C576-49D3-AF61-980AE076B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E10D2E-BBE6-43C5-A253-254A9637AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>kamal</t>
   </si>
   <si>
-    <t>jameel</t>
-  </si>
-  <si>
     <t>mark</t>
+  </si>
+  <si>
+    <t>ahmad</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,7 +404,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>30</v>
